--- a/jets/expdata/10092.xlsx
+++ b/jets/expdata/10092.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16980"/>
+    <workbookView windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,33 +183,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,31 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +240,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,14 +277,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -304,17 +298,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +335,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,43 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,55 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,61 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,15 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,135 +620,120 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,22 +745,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,10 +1102,36 @@
   <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AO73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="25.1875" customWidth="1"/>
+    <col min="4" max="4" width="13.3125" customWidth="1"/>
+    <col min="5" max="5" width="15.6875" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="34.0625" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="28.4375" customWidth="1"/>
+    <col min="11" max="11" width="26.4375" customWidth="1"/>
+    <col min="12" max="12" width="65.6875" customWidth="1"/>
+    <col min="13" max="13" width="12.1875" customWidth="1"/>
+    <col min="14" max="15" width="34.0625" customWidth="1"/>
+    <col min="16" max="16" width="35.0625" customWidth="1"/>
+    <col min="17" max="21" width="58.625" customWidth="1"/>
+    <col min="22" max="26" width="62.875" customWidth="1"/>
+    <col min="27" max="27" width="25.4375" customWidth="1"/>
+    <col min="28" max="28" width="26.1875" customWidth="1"/>
+    <col min="29" max="33" width="53.4375" customWidth="1"/>
+    <col min="34" max="38" width="52.125" customWidth="1"/>
+    <col min="39" max="39" width="23.8125" customWidth="1"/>
+    <col min="40" max="40" width="38.8125" customWidth="1"/>
+    <col min="41" max="41" width="25.1875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="35.6" spans="1:41">
       <c r="A1" s="1" t="s">
